--- a/设计模式分类.xlsx
+++ b/设计模式分类.xlsx
@@ -10,7 +10,6 @@
     <sheet name="分类" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Builder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prototype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +149,11 @@
   <si>
     <t>行为型
 Behavioral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成器
+Builder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,14 +178,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -593,19 +593,19 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,37 +616,37 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="36" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
@@ -655,109 +655,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式分类.xlsx
+++ b/设计模式分类.xlsx
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prototype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Singleton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,11 @@
   <si>
     <t>生成器
 Builder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型
+Prototype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,6 +257,15 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -264,17 +274,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,158 +607,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
+    <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
+    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+    <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
+    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式分类.xlsx
+++ b/设计模式分类.xlsx
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Singleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Adapter(Class)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,11 @@
   <si>
     <t>原型
 Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件
+Singleton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,13 +622,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -635,13 +636,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -659,55 +660,55 @@
     <row r="6" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -715,10 +716,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -726,10 +727,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -737,10 +738,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -749,7 +750,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -758,7 +759,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式分类.xlsx
+++ b/设计模式分类.xlsx
@@ -41,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Adapter(Class)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adapter(Object)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类
 Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +148,16 @@
   <si>
     <t>单件
 Singleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器（类）
+Adapter(Class)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器（对象）
+Adapter(Object)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,13 +624,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -636,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -660,55 +662,55 @@
     <row r="6" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -716,10 +718,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -727,10 +729,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -738,10 +740,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -750,7 +752,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -759,7 +761,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式分类.xlsx
+++ b/设计模式分类.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Composite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,6 +154,11 @@
   <si>
     <t>适配器（对象）
 Adapter(Object)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥接
+Bridge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,13 +625,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -641,10 +642,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -665,52 +666,52 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -718,10 +719,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -729,10 +730,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -740,10 +741,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -752,7 +753,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -761,7 +762,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式分类.xlsx
+++ b/设计模式分类.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Composite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decorator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +155,11 @@
   <si>
     <t>桥接
 Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合
+Composite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,9 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -625,13 +624,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -642,10 +641,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -666,52 +665,52 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -719,10 +718,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -730,10 +729,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -741,10 +740,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -753,7 +752,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -762,7 +761,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式分类.xlsx
+++ b/设计模式分类.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Decorator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Façade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +156,11 @@
   <si>
     <t>组合
 Composite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰
+Decorator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -624,13 +627,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -641,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -665,52 +668,52 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -718,10 +721,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -729,10 +732,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -740,10 +743,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -752,7 +755,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -761,7 +764,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
